--- a/results/mp/logistic/corona/confidence/126/stop-words-desired-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-desired-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,31 +40,31 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>fears</t>
   </si>
   <si>
     <t>low</t>
@@ -79,6 +79,9 @@
     <t>co</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -100,70 +103,76 @@
     <t>hand</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>great</t>
+    <t>join</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>safety</t>
@@ -172,10 +181,7 @@
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>data</t>
+    <t>helping</t>
   </si>
   <si>
     <t>corona</t>
@@ -536,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,10 +550,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -605,13 +611,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8356164383561644</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -623,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -655,13 +661,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.8184931506849316</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -673,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4">
         <v>0.9696969696969697</v>
@@ -705,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7567567567567568</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.9666666666666667</v>
+        <v>0.95</v>
       </c>
       <c r="L5">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M5">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -747,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -755,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -773,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,13 +811,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7368421052631579</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -826,16 +832,16 @@
         <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.9444444444444444</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -847,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -855,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6349206349206349</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="C8">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D8">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -873,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.9086161879895561</v>
+        <v>0.9033942558746736</v>
       </c>
       <c r="L8">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M8">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -905,13 +911,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5310077519379846</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C9">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="D9">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -923,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.8936170212765957</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -947,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -955,13 +961,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.423728813559322</v>
+        <v>0.5736434108527132</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>296</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>296</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -973,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.8928571428571429</v>
+        <v>0.88125</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -997,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1005,13 +1011,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3733333333333334</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1023,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.8828125</v>
+        <v>0.8732394366197183</v>
       </c>
       <c r="L11">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="M11">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1047,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1055,13 +1061,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3624161073825503</v>
+        <v>0.348993288590604</v>
       </c>
       <c r="C12">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1073,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.86875</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L12">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="M12">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1097,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1105,13 +1111,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1111111111111111</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1123,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.8679245283018868</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L13">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1147,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1155,13 +1161,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.08042895442359249</v>
+        <v>0.0938337801608579</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1173,19 +1179,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K14">
-        <v>0.8620689655172413</v>
+        <v>0.8515625</v>
       </c>
       <c r="L14">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="M14">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1197,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1205,37 +1211,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.01064516129032258</v>
+        <v>0.0203751617076326</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E15">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="F15">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>3067</v>
+        <v>3029</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.8450704225352113</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="L15">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="M15">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1247,21 +1253,45 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.01275389702409069</v>
+      </c>
+      <c r="C16">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>53</v>
+      </c>
+      <c r="E16">
+        <v>0.49</v>
+      </c>
+      <c r="F16">
+        <v>0.51</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>2090</v>
+      </c>
       <c r="J16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K16">
-        <v>0.8372093023255814</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1273,21 +1303,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K17">
-        <v>0.8333333333333334</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1299,12 +1329,12 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K18">
         <v>0.8170731707317073</v>
@@ -1330,16 +1360,16 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K19">
-        <v>0.8095238095238095</v>
+        <v>0.8</v>
       </c>
       <c r="L19">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1351,21 +1381,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>0.7916666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1377,21 +1407,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>0.7428571428571429</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1403,21 +1433,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1429,21 +1459,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>0.725</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L23">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M23">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1455,21 +1485,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K24">
-        <v>0.7142857142857143</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="L24">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="M24">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1478,50 +1508,50 @@
         <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K25">
-        <v>0.711764705882353</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="M25">
-        <v>242</v>
+        <v>171</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K26">
-        <v>0.6903765690376569</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L26">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="M26">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1533,21 +1563,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>0.648936170212766</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L27">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M27">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1559,12 +1589,12 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28">
         <v>0.6461538461538462</v>
@@ -1590,16 +1620,16 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29">
-        <v>0.6428571428571429</v>
+        <v>0.6067415730337079</v>
       </c>
       <c r="L29">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M29">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1611,21 +1641,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>0.6404494382022472</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L30">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="M30">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1637,21 +1667,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31">
-        <v>0.6078431372549019</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M31">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1668,16 +1698,16 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K32">
-        <v>0.5342465753424658</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L32">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M32">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1689,21 +1719,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.4487179487179487</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L33">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1715,21 +1745,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.4385964912280702</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1741,33 +1771,85 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.01160966426106056</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L35">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="M35">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="N35">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>3150</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K36">
+        <v>0.01635734507706826</v>
+      </c>
+      <c r="L36">
+        <v>52</v>
+      </c>
+      <c r="M36">
+        <v>74</v>
+      </c>
+      <c r="N36">
+        <v>0.7</v>
+      </c>
+      <c r="O36">
+        <v>0.3</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37">
+        <v>0.01228733459357278</v>
+      </c>
+      <c r="L37">
+        <v>26</v>
+      </c>
+      <c r="M37">
+        <v>53</v>
+      </c>
+      <c r="N37">
+        <v>0.49</v>
+      </c>
+      <c r="O37">
+        <v>0.51</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>2090</v>
       </c>
     </row>
   </sheetData>
